--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value176.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value176.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.303350918257127</v>
+        <v>1.490922689437866</v>
       </c>
       <c r="B1">
-        <v>1.482447339988122</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.828852473063553</v>
+        <v>4.733295440673828</v>
       </c>
       <c r="D1">
-        <v>3.308414021540018</v>
+        <v>2.222400665283203</v>
       </c>
       <c r="E1">
-        <v>1.091301638180026</v>
+        <v>1.734768033027649</v>
       </c>
     </row>
   </sheetData>
